--- a/Project/Data/LevelingData.xlsx
+++ b/Project/Data/LevelingData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Just Run\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96166A65-0862-4E7A-B57F-DFB752FE67E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A9451F-0B40-4BFF-810F-5ED89EFF0426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1200" windowWidth="21600" windowHeight="11295" xr2:uid="{1C3B0E32-2987-4506-BB7E-0AF042D36EA5}"/>
+    <workbookView xWindow="1845" yWindow="3945" windowWidth="24150" windowHeight="11295" xr2:uid="{1C3B0E32-2987-4506-BB7E-0AF042D36EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
+    <sheet name="Normal" sheetId="2" r:id="rId2"/>
+    <sheet name="Hard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +115,58 @@
   </si>
   <si>
     <t>MaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUp Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲이 울창하고, 동식물이 넘쳐난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳을 다 알아보려면 10분은 걸릴 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘을 모으기가 힘들어 1분은 집중해야 할 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 동식물들이 잘 어울려 살고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍경을 7분동안 감상하기가 좋아보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍경을 보느라 힘을 모으는데 45초가 걸릴 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 동식물이 듬성듬성 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼것도 없다 5분만 산책하고 떠나자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겸사겸사 30초마다 힘도 모으자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +190,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -375,14 +444,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -391,74 +575,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56540A80-515A-416B-B96B-E7B94412599D}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -785,244 +927,662 @@
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13">
-        <v>50</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="20">
         <v>5</v>
       </c>
-      <c r="D2" s="22">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" cm="1">
+        <f t="array" ref="H2">SUM(IF(MOD(COLUMN(22:22),3)=0,22:22))+C2</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="12" cm="1">
+        <f t="array" ref="I2">SUM(IF(MOD(COLUMN(22:22),3)=0,$B22:$XFD22))+D2</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K2">
         <f>MAX(19:19)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>500</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <f>COUNTA(B2:B10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
         <v>10</v>
       </c>
-      <c r="C3" s="13">
-        <v>2</v>
-      </c>
-      <c r="D3" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" cm="1">
+        <f t="array" ref="H3">SUM(IF(MOD(COLUMN(23:23),3)=0,23:23))+C3</f>
         <v>4</v>
       </c>
-      <c r="B4" s="24">
-        <v>5</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="I3" s="12" cm="1">
+        <f t="array" ref="I3">SUM(IF(MOD(COLUMN(23:23),3)=0,$B23:$XFD23))+D3</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" cm="1">
-        <f t="array" ref="C7">SUM(IF(MOD(COLUMN(22:22),3)=0,22:22))+C2</f>
-        <v>14</v>
-      </c>
-      <c r="D7" s="14" cm="1">
-        <f t="array" ref="D7">SUM(IF(MOD(COLUMN(22:22),3)=0,$B22:$XFD22))+D2</f>
-        <v>1.6</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" cm="1">
-        <f t="array" ref="C8">SUM(IF(MOD(COLUMN(23:23),3)=0,23:23))+C3</f>
-        <v>5</v>
-      </c>
-      <c r="D8" s="14" cm="1">
-        <f t="array" ref="D8">SUM(IF(MOD(COLUMN(23:23),3)=0,$B23:$XFD23))+D3</f>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" cm="1">
-        <f t="array" ref="C9">SUM(IF(MOD(COLUMN(24:24),3)=0,24:24))+C4</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="17" cm="1">
-        <f t="array" ref="D9">SUM(IF(MOD(COLUMN(24:24),3)=0,$B24:$XFD24))+D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" cm="1">
+        <f t="array" ref="H4">SUM(IF(MOD(COLUMN(24:24),3)=0,24:24))+C4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="15" cm="1">
+        <f t="array" ref="I4">SUM(IF(MOD(COLUMN(24:24),3)=0,$B24:$XFD24))+D4</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="24">
+        <f>COUNTA(F7:I14)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="F19" s="25">
+        <v>2</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="I19" s="25">
+        <v>3</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="L19" s="25">
+        <v>4</v>
+      </c>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>-0.1</v>
       </c>
-      <c r="F22" s="5">
-        <v>3</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
         <v>-0.1</v>
       </c>
-      <c r="I22" s="5">
-        <v>5</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
         <v>-0.3</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
         <v>-0.3</v>
       </c>
-      <c r="I23" s="5">
-        <v>2</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F0697-3620-4B23-9792-1A1578E7B5B5}">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="28" cm="1">
+        <f t="array" ref="G2">SUM(IF(MOD(COLUMN(22:22),3)=0,22:22))+C2</f>
+        <v>10</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="12" cm="1">
+        <f t="array" ref="I2">SUM(IF(MOD(COLUMN(22:22),3)=0,$B22:$XFD22))+D2</f>
+        <v>3.5</v>
+      </c>
+      <c r="K2">
+        <f>MAX(19:19)</f>
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>700</v>
+      </c>
+      <c r="M2">
+        <v>45</v>
+      </c>
+      <c r="N2">
+        <f>COUNTA(B2:B10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28" cm="1">
+        <f t="array" ref="G3">SUM(IF(MOD(COLUMN(23:23),3)=0,23:23))+C3</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="12" cm="1">
+        <f t="array" ref="I3">SUM(IF(MOD(COLUMN(23:23),3)=0,$B23:$XFD23))+D3</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22">
+        <v>10</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>6</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="27" cm="1">
+        <f t="array" ref="G4">SUM(IF(MOD(COLUMN(24:24),3)=0,24:24))+C4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="15" cm="1">
+        <f t="array" ref="I4">SUM(IF(MOD(COLUMN(24:24),3)=0,$B24:$XFD24))+D4</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="24">
+        <f>COUNTA(F7:I14)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="F19" s="25">
+        <v>2</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="I19" s="25">
+        <v>3</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="L19" s="25">
+        <v>4</v>
+      </c>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>-0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:J19"/>
@@ -1030,4 +1590,347 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1BF113-586B-4900-A997-0CC38BCEFF19}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>100</v>
+      </c>
+      <c r="C2" s="11">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" cm="1">
+        <f t="array" ref="H2">SUM(IF(MOD(COLUMN(22:22),3)=0,22:22))+C2</f>
+        <v>15</v>
+      </c>
+      <c r="I2" s="12" cm="1">
+        <f t="array" ref="I2">SUM(IF(MOD(COLUMN(22:22),3)=0,$B22:$XFD22))+D2</f>
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <f>MAX(19:19)</f>
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <f>COUNTA(B2:B10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>100</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" cm="1">
+        <f t="array" ref="H3">SUM(IF(MOD(COLUMN(23:23),3)=0,23:23))+C3</f>
+        <v>7</v>
+      </c>
+      <c r="I3" s="12" cm="1">
+        <f t="array" ref="I3">SUM(IF(MOD(COLUMN(23:23),3)=0,$B23:$XFD23))+D3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22">
+        <v>100</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" cm="1">
+        <f t="array" ref="H4">SUM(IF(MOD(COLUMN(24:24),3)=0,24:24))+C4</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="15" cm="1">
+        <f t="array" ref="I4">SUM(IF(MOD(COLUMN(24:24),3)=0,$B24:$XFD24))+D4</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="24">
+        <f>COUNTA(F7:I14)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="F19" s="25">
+        <v>2</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="I19" s="25">
+        <v>3</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="L19" s="25">
+        <v>4</v>
+      </c>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project/Data/LevelingData.xlsx
+++ b/Project/Data/LevelingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Just Run\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A9451F-0B40-4BFF-810F-5ED89EFF0426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD064079-6F42-4BAD-98C3-5F9BC21C5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3945" windowWidth="24150" windowHeight="11295" xr2:uid="{1C3B0E32-2987-4506-BB7E-0AF042D36EA5}"/>
+    <workbookView xWindow="2145" yWindow="2160" windowWidth="24150" windowHeight="11295" xr2:uid="{1C3B0E32-2987-4506-BB7E-0AF042D36EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>겸사겸사 30초마다 힘도 모으자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tile Type Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tile Type Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,9 +580,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,24 +608,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56540A80-515A-416B-B96B-E7B94412599D}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="P1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,9 +943,11 @@
     <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -970,8 +980,14 @@
       <c r="N1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1010,8 +1026,14 @@
         <f>COUNTA(B2:B10)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1059,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1063,62 +1085,62 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F6" s="34" t="s">
+    <row r="6" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E7" s="24">
         <f>COUNTA(F7:I14)</f>
         <v>3</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F8" s="31" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F9" s="31" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="F19" s="25">
-        <v>2</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="I19" s="25">
-        <v>3</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="L19" s="25">
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="F19" s="27">
+        <v>2</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="I19" s="27">
+        <v>3</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="L19" s="27">
         <v>4</v>
       </c>
-      <c r="M19" s="25"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -1255,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F0697-3620-4B23-9792-1A1578E7B5B5}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,9 +1293,11 @@
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="13.125" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1287,10 +1311,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
@@ -1306,8 +1330,14 @@
       <c r="N1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1323,11 +1353,11 @@
       <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="28" cm="1">
+      <c r="G2" s="34" cm="1">
         <f t="array" ref="G2">SUM(IF(MOD(COLUMN(22:22),3)=0,22:22))+C2</f>
         <v>10</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="12" cm="1">
         <f t="array" ref="I2">SUM(IF(MOD(COLUMN(22:22),3)=0,$B22:$XFD22))+D2</f>
         <v>3.5</v>
@@ -1346,8 +1376,14 @@
         <f>COUNTA(B2:B10)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1363,17 +1399,17 @@
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28" cm="1">
+      <c r="G3" s="34" cm="1">
         <f t="array" ref="G3">SUM(IF(MOD(COLUMN(23:23),3)=0,23:23))+C3</f>
         <v>6</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="12" cm="1">
         <f t="array" ref="I3">SUM(IF(MOD(COLUMN(23:23),3)=0,$B23:$XFD23))+D3</f>
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1389,72 +1425,72 @@
       <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27" cm="1">
+      <c r="G4" s="33" cm="1">
         <f t="array" ref="G4">SUM(IF(MOD(COLUMN(24:24),3)=0,24:24))+C4</f>
         <v>1</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="15" cm="1">
         <f t="array" ref="I4">SUM(IF(MOD(COLUMN(24:24),3)=0,$B24:$XFD24))+D4</f>
         <v>5.9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F6" s="34" t="s">
+    <row r="6" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E7" s="24">
         <f>COUNTA(F7:I14)</f>
         <v>3</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F8" s="31" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F9" s="31" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="F19" s="25">
-        <v>2</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="I19" s="25">
-        <v>3</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="L19" s="25">
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="F19" s="27">
+        <v>2</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="I19" s="27">
+        <v>3</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="L19" s="27">
         <v>4</v>
       </c>
-      <c r="M19" s="25"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -1594,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1BF113-586B-4900-A997-0CC38BCEFF19}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1609,9 +1645,11 @@
     <col min="9" max="9" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="11.75" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1644,8 +1682,14 @@
       <c r="N1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1656,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>2</v>
@@ -1668,7 +1712,7 @@
       </c>
       <c r="I2" s="12" cm="1">
         <f t="array" ref="I2">SUM(IF(MOD(COLUMN(22:22),3)=0,$B22:$XFD22))+D2</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K2">
         <f>MAX(19:19)</f>
@@ -1684,8 +1728,14 @@
         <f>COUNTA(B2:B10)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1711,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1737,68 +1787,68 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F6" s="34" t="s">
+    <row r="6" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="24">
         <f>COUNTA(F7:I14)</f>
         <v>3</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="31" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="31" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="F19" s="25">
-        <v>2</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="I19" s="25">
-        <v>3</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="L19" s="25">
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="F19" s="27">
+        <v>2</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="I19" s="27">
+        <v>3</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="L19" s="27">
         <v>4</v>
       </c>
-      <c r="M19" s="25"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -1917,7 +1967,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L25" s="29"/>
+      <c r="L25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
